--- a/script/异常报备测试数据1条.xlsx
+++ b/script/异常报备测试数据1条.xlsx
@@ -479,22 +479,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>仵鹏</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>自主招聘</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>战丽梅</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>院校</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>二级院校</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -504,25 +504,25 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>360281200106199191</t>
+          <t>441225198908214111</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14566577515</t>
+          <t>18895021389</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44744.64684027778</v>
+        <v>44743.69971064815</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>陈兵</t>
+          <t>刘婷婷</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
     </row>

--- a/script/异常报备测试数据1条.xlsx
+++ b/script/异常报备测试数据1条.xlsx
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>朱继梅</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>战丽梅</t>
+          <t>李勇</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -499,30 +499,30 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>实习协议</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>441225198908214111</t>
+          <t>330281199010204987</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18895021389</t>
+          <t>15274759206</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44743.69971064815</v>
+        <v>44751.55527777778</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>刘婷婷</t>
+          <t>邓健</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>

--- a/script/异常报备测试数据1条.xlsx
+++ b/script/异常报备测试数据1条.xlsx
@@ -484,12 +484,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>供应商</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>李勇</t>
+          <t>上线前最后的供应商1126</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -499,25 +499,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>实习协议</t>
+          <t>劳务协议</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>330281199010204987</t>
+          <t>450922200105300526</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15274759206</t>
+          <t>18637343236</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44751.55527777778</v>
+        <v>44753.78903935185</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>邓健</t>
+          <t>吴琴</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
